--- a/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240311_Readme_TMP_FEOM_CO_2.xlsx
+++ b/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240311_Readme_TMP_FEOM_CO_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\tempest-exp-feom-ConnorSULI\1-data\TMP_FEOM_TOC\OneDrive_1_3-21-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA06C5F-A919-4972-BA9B-CA1424C77F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96902A0-2EBF-4E12-A481-299A51FCB871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB0433CF-543D-4FDA-A33B-D7DF0F122BC6}"/>
   </bookViews>
